--- a/Surveys/07_06_2022_Tracer_Survey.xlsx
+++ b/Surveys/07_06_2022_Tracer_Survey.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\RFID_tracers\Surveys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tacob\Documents\GitHub\RFID_tracers\Surveys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E788BBAA-571D-46BC-A5CC-4ED2012E09F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F193B930-9B88-4D31-A01A-8183029C8340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3AF3E8F-FEA9-4812-A076-230554F8424C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A3AF3E8F-FEA9-4812-A076-230554F8424C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="31">
   <si>
     <t>Tracer survey for trainagulating locations on streambed</t>
   </si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>Composite Error</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>No Distinct Triangle.</t>
+  </si>
+  <si>
+    <t>Nicole Revisit.</t>
   </si>
 </sst>
 </file>
@@ -228,7 +237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -264,11 +273,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -336,6 +426,13 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -354,13 +451,32 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A376C9C8-D535-4C27-86BF-35E3FAC570AB}">
-  <dimension ref="A1:O110"/>
+  <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,25 +812,26 @@
     <col min="13" max="13" width="12.33203125" customWidth="1"/>
     <col min="14" max="14" width="10.109375" customWidth="1"/>
     <col min="15" max="15" width="20.6640625" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" customWidth="1"/>
     <col min="18" max="18" width="4.109375" customWidth="1"/>
     <col min="19" max="19" width="10.88671875" customWidth="1"/>
     <col min="23" max="23" width="4" customWidth="1"/>
     <col min="24" max="24" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44748</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -722,7 +839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -730,7 +847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -738,35 +855,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="29" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29" t="s">
+      <c r="F7" s="25"/>
+      <c r="G7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29" t="s">
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="33"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
@@ -779,10 +900,10 @@
       <c r="D8" s="10">
         <v>12</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="23" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="21" t="s">
@@ -812,8 +933,10 @@
       <c r="O8" s="21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8" s="34"/>
+      <c r="Q8" s="35"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>3</v>
       </c>
@@ -826,19 +949,35 @@
       <c r="D9" s="19">
         <v>121</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E9" s="20">
+        <v>475294.80099999998</v>
+      </c>
+      <c r="F9" s="20">
+        <v>539903.62600000005</v>
+      </c>
+      <c r="G9" s="24">
+        <v>1.133</v>
+      </c>
+      <c r="H9" s="24">
+        <v>5.407</v>
+      </c>
+      <c r="I9" s="24">
+        <v>1.679</v>
+      </c>
+      <c r="J9" s="24">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="K9" s="24">
+        <v>1.329</v>
+      </c>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>113</v>
       </c>
@@ -847,17 +986,19 @@
       <c r="D10" s="12"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>42</v>
       </c>
@@ -866,17 +1007,19 @@
       <c r="D11" s="12"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>4</v>
       </c>
@@ -889,19 +1032,35 @@
       <c r="D12" s="12">
         <v>77</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E12" s="20">
+        <v>475294.48200000002</v>
+      </c>
+      <c r="F12" s="20">
+        <v>539903.78099999996</v>
+      </c>
+      <c r="G12" s="24">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="H12" s="24">
+        <v>3.64</v>
+      </c>
+      <c r="I12" s="24">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="J12" s="24">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="K12" s="24">
+        <v>1.3109999999999999</v>
+      </c>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>105</v>
       </c>
@@ -916,17 +1075,21 @@
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="36"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>25</v>
       </c>
@@ -939,19 +1102,35 @@
       <c r="D14" s="12">
         <v>129</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E14" s="20">
+        <v>475294.31</v>
+      </c>
+      <c r="F14" s="20">
+        <v>539903.72</v>
+      </c>
+      <c r="G14" s="24">
+        <v>1.5269999999999999</v>
+      </c>
+      <c r="H14" s="24">
+        <v>6.1150000000000002</v>
+      </c>
+      <c r="I14" s="24">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="J14" s="24">
+        <v>1.254</v>
+      </c>
+      <c r="K14" s="24">
+        <v>2.2919999999999998</v>
+      </c>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>30</v>
       </c>
@@ -964,19 +1143,31 @@
       <c r="D15" s="12">
         <v>113</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E15" s="20">
+        <v>475293.87300000002</v>
+      </c>
+      <c r="F15" s="20">
+        <v>539904.06599999999</v>
+      </c>
+      <c r="G15" s="24">
+        <v>1.099</v>
+      </c>
+      <c r="H15" s="24">
+        <v>5.141</v>
+      </c>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="36"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>99</v>
       </c>
@@ -991,17 +1182,21 @@
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="36"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>33</v>
       </c>
@@ -1014,19 +1209,35 @@
       <c r="D17" s="12">
         <v>137</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E17" s="20">
+        <v>475293.54700000002</v>
+      </c>
+      <c r="F17" s="20">
+        <v>539903.56499999994</v>
+      </c>
+      <c r="G17" s="24">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H17" s="24">
+        <v>3.49</v>
+      </c>
+      <c r="I17" s="24">
+        <v>1.407</v>
+      </c>
+      <c r="J17" s="24">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="K17" s="24">
+        <v>7.8E-2</v>
+      </c>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>117</v>
       </c>
@@ -1039,19 +1250,35 @@
       <c r="D18" s="12">
         <v>153</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E18" s="20">
+        <v>475294.88299999997</v>
+      </c>
+      <c r="F18" s="20">
+        <v>539903.48600000003</v>
+      </c>
+      <c r="G18" s="24">
+        <v>1.671</v>
+      </c>
+      <c r="H18" s="24">
+        <v>6.6689999999999996</v>
+      </c>
+      <c r="I18" s="24">
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="J18" s="24">
+        <v>1.5069999999999999</v>
+      </c>
+      <c r="K18" s="24">
+        <v>2.181</v>
+      </c>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>26</v>
       </c>
@@ -1064,19 +1291,35 @@
       <c r="D19" s="12">
         <v>158</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E19" s="20">
+        <v>475293.97899999999</v>
+      </c>
+      <c r="F19" s="20">
+        <v>539904.05000000005</v>
+      </c>
+      <c r="G19" s="24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H19" s="24">
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="I19" s="24">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="J19" s="24">
+        <v>0.61</v>
+      </c>
+      <c r="K19" s="24">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>54</v>
       </c>
@@ -1085,17 +1328,19 @@
       <c r="D20" s="12"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>55</v>
       </c>
@@ -1108,19 +1353,35 @@
       <c r="D21" s="12">
         <v>143</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E21" s="20">
+        <v>475293.076</v>
+      </c>
+      <c r="F21" s="20">
+        <v>539903.93999999994</v>
+      </c>
+      <c r="G21" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="H21" s="24">
+        <v>2.3050000000000002</v>
+      </c>
+      <c r="I21" s="24">
+        <v>0.312</v>
+      </c>
+      <c r="J21" s="24">
+        <v>0.315</v>
+      </c>
+      <c r="K21" s="24">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>71</v>
       </c>
@@ -1129,17 +1390,19 @@
       <c r="D22" s="12"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>51</v>
       </c>
@@ -1148,17 +1411,19 @@
       <c r="D23" s="12"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>80</v>
       </c>
@@ -1167,17 +1432,19 @@
       <c r="D24" s="12"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>63</v>
       </c>
@@ -1190,19 +1457,35 @@
       <c r="D25" s="12">
         <v>130</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E25" s="20">
+        <v>475293.41499999998</v>
+      </c>
+      <c r="F25" s="20">
+        <v>539903.70499999996</v>
+      </c>
+      <c r="G25" s="24">
+        <v>0.129</v>
+      </c>
+      <c r="H25" s="24">
+        <v>3.0030000000000001</v>
+      </c>
+      <c r="I25" s="24">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="J25" s="24">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="K25" s="24">
+        <v>0.96</v>
+      </c>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>87</v>
       </c>
@@ -1215,19 +1498,35 @@
       <c r="D26" s="12">
         <v>66</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E26" s="20">
+        <v>475293.93</v>
+      </c>
+      <c r="F26" s="20">
+        <v>539903.81700000004</v>
+      </c>
+      <c r="G26" s="24">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H26" s="24">
+        <v>1.399</v>
+      </c>
+      <c r="I26" s="24">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="J26" s="24">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="K26" s="24">
+        <v>0.502</v>
+      </c>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>50</v>
       </c>
@@ -1236,17 +1535,19 @@
       <c r="D27" s="12"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>26</v>
       </c>
@@ -1259,19 +1560,35 @@
       <c r="D28" s="12">
         <v>153</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E28" s="20">
+        <v>475293.85499999998</v>
+      </c>
+      <c r="F28" s="20">
+        <v>539903.38800000004</v>
+      </c>
+      <c r="G28" s="24">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H28" s="24">
+        <v>4.681</v>
+      </c>
+      <c r="I28" s="24">
+        <v>2.2370000000000001</v>
+      </c>
+      <c r="J28" s="24">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K28" s="24">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>55</v>
       </c>
@@ -1284,19 +1601,35 @@
       <c r="D29" s="12">
         <v>173</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E29" s="20">
+        <v>475293.652</v>
+      </c>
+      <c r="F29" s="20">
+        <v>539903.4</v>
+      </c>
+      <c r="G29" s="24">
+        <v>0.254</v>
+      </c>
+      <c r="H29" s="24">
+        <v>5.548</v>
+      </c>
+      <c r="I29" s="39">
+        <v>2.4849999999999999</v>
+      </c>
+      <c r="J29" s="24">
+        <v>0.188</v>
+      </c>
+      <c r="K29" s="24">
+        <v>0.193</v>
+      </c>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>37</v>
       </c>
@@ -1305,44 +1638,54 @@
       <c r="D30" s="12"/>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P31" s="37"/>
+      <c r="Q31" s="38"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="29" t="s">
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29" t="s">
+      <c r="F32" s="25"/>
+      <c r="G32" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29" t="s">
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q32" s="33"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>12</v>
       </c>
@@ -1355,10 +1698,10 @@
       <c r="D33" s="10">
         <v>12</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="23" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="21" t="s">
@@ -1388,8 +1731,10 @@
       <c r="O33" s="21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P33" s="34"/>
+      <c r="Q33" s="35"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>7</v>
       </c>
@@ -1402,19 +1747,35 @@
       <c r="D34" s="12">
         <v>194</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E34" s="20">
+        <v>475292.84700000001</v>
+      </c>
+      <c r="F34" s="20">
+        <v>539903.64199999999</v>
+      </c>
+      <c r="G34" s="24">
+        <v>0.111</v>
+      </c>
+      <c r="H34" s="24">
+        <v>4.1159999999999997</v>
+      </c>
+      <c r="I34" s="24">
+        <v>1.2030000000000001</v>
+      </c>
+      <c r="J34" s="24">
+        <v>0.109</v>
+      </c>
+      <c r="K34" s="24">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>44</v>
       </c>
@@ -1427,19 +1788,35 @@
       <c r="D35" s="12">
         <v>168</v>
       </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E35" s="20">
+        <v>475293.13199999998</v>
+      </c>
+      <c r="F35" s="20">
+        <v>539903.66299999994</v>
+      </c>
+      <c r="G35" s="24">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="H35" s="24">
+        <v>4.1289999999999996</v>
+      </c>
+      <c r="I35" s="24">
+        <v>1.3220000000000001</v>
+      </c>
+      <c r="J35" s="24">
+        <v>0.223</v>
+      </c>
+      <c r="K35" s="24">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
         <v>13</v>
       </c>
@@ -1452,19 +1829,35 @@
       <c r="D36" s="12">
         <v>155</v>
       </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E36" s="20">
+        <v>475292.99200000003</v>
+      </c>
+      <c r="F36" s="20">
+        <v>539903.804</v>
+      </c>
+      <c r="G36" s="24">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H36" s="24">
+        <v>2.177</v>
+      </c>
+      <c r="I36" s="24">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="J36" s="24">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="K36" s="24">
+        <v>0.104</v>
+      </c>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <v>16</v>
       </c>
@@ -1477,19 +1870,35 @@
       <c r="D37" s="12">
         <v>180</v>
       </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E37" s="20">
+        <v>475292.91899999999</v>
+      </c>
+      <c r="F37" s="20">
+        <v>539903.72</v>
+      </c>
+      <c r="G37" s="24">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="H37" s="24">
+        <v>3.8780000000000001</v>
+      </c>
+      <c r="I37" s="24">
+        <v>1.0740000000000001</v>
+      </c>
+      <c r="J37" s="24">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="K37" s="24">
+        <v>0.252</v>
+      </c>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>112</v>
       </c>
@@ -1502,19 +1911,35 @@
       <c r="D38" s="12">
         <v>227</v>
       </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E38" s="20">
+        <v>475292.78899999999</v>
+      </c>
+      <c r="F38" s="20">
+        <v>539903.54500000004</v>
+      </c>
+      <c r="G38" s="24">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="H38" s="24">
+        <v>6.2329999999999997</v>
+      </c>
+      <c r="I38" s="24">
+        <v>2.1480000000000001</v>
+      </c>
+      <c r="J38" s="24">
+        <v>0.32</v>
+      </c>
+      <c r="K38" s="24">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
         <v>32</v>
       </c>
@@ -1527,19 +1952,35 @@
       <c r="D39" s="12">
         <v>233</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E39" s="20">
+        <v>475292.91800000001</v>
+      </c>
+      <c r="F39" s="20">
+        <v>539903.48100000003</v>
+      </c>
+      <c r="G39" s="24">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="H39" s="24">
+        <v>7.1870000000000003</v>
+      </c>
+      <c r="I39" s="24">
+        <v>2.6509999999999998</v>
+      </c>
+      <c r="J39" s="24">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="K39" s="24">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
         <v>59</v>
       </c>
@@ -1552,19 +1993,35 @@
       <c r="D40" s="12">
         <v>169</v>
       </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E40" s="20">
+        <v>475292.826</v>
+      </c>
+      <c r="F40" s="20">
+        <v>539903.88199999998</v>
+      </c>
+      <c r="G40" s="24">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="H40" s="24">
+        <v>2.3980000000000001</v>
+      </c>
+      <c r="I40" s="24">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="J40" s="24">
+        <v>0.21</v>
+      </c>
+      <c r="K40" s="24">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>57</v>
       </c>
@@ -1577,19 +2034,35 @@
       <c r="D41" s="12">
         <v>217</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E41" s="20">
+        <v>475293.11599999998</v>
+      </c>
+      <c r="F41" s="20">
+        <v>539903.46499999997</v>
+      </c>
+      <c r="G41" s="24">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="H41" s="24">
+        <v>6.9080000000000004</v>
+      </c>
+      <c r="I41" s="24">
+        <v>2.665</v>
+      </c>
+      <c r="J41" s="24">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="K41" s="24">
+        <v>0.441</v>
+      </c>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="16">
         <v>104</v>
       </c>
@@ -1602,19 +2075,35 @@
       <c r="D42" s="12">
         <v>134</v>
       </c>
-      <c r="E42" s="22"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E42" s="22">
+        <v>475293.28</v>
+      </c>
+      <c r="F42" s="20">
+        <v>539903.755</v>
+      </c>
+      <c r="G42" s="24">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="H42" s="24">
+        <v>2.5609999999999999</v>
+      </c>
+      <c r="I42" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="J42" s="24">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="K42" s="24">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
         <v>127</v>
       </c>
@@ -1627,19 +2116,35 @@
       <c r="D43" s="12">
         <v>172</v>
       </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E43" s="20">
+        <v>475292.99099999998</v>
+      </c>
+      <c r="F43" s="20">
+        <v>539903.69799999997</v>
+      </c>
+      <c r="G43" s="24">
+        <v>0.128</v>
+      </c>
+      <c r="H43" s="24">
+        <v>3.5369999999999999</v>
+      </c>
+      <c r="I43" s="24">
+        <v>1.028</v>
+      </c>
+      <c r="J43" s="24">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="K43" s="24">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="17">
         <v>134</v>
       </c>
@@ -1652,19 +2157,35 @@
       <c r="D44" s="12">
         <v>186</v>
       </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E44" s="20">
+        <v>475293.10800000001</v>
+      </c>
+      <c r="F44" s="20">
+        <v>539903.603</v>
+      </c>
+      <c r="G44" s="24">
+        <v>0.42</v>
+      </c>
+      <c r="H44" s="24">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="I44" s="24">
+        <v>1.794</v>
+      </c>
+      <c r="J44" s="24">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="K44" s="24">
+        <v>0.379</v>
+      </c>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="17">
         <v>79</v>
       </c>
@@ -1677,19 +2198,35 @@
       <c r="D45" s="12">
         <v>220</v>
       </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E45" s="20">
+        <v>475292.821</v>
+      </c>
+      <c r="F45" s="20">
+        <v>539903.598</v>
+      </c>
+      <c r="G45" s="24">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="H45" s="24">
+        <v>6.2160000000000002</v>
+      </c>
+      <c r="I45" s="24">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="J45" s="24">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="K45" s="24">
+        <v>0.504</v>
+      </c>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="18">
         <v>17</v>
       </c>
@@ -1702,19 +2239,35 @@
       <c r="D46" s="12">
         <v>205</v>
       </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E46" s="20">
+        <v>475292.88</v>
+      </c>
+      <c r="F46" s="20">
+        <v>539903.571</v>
+      </c>
+      <c r="G46" s="24">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="H46" s="24">
+        <v>4.9939999999999998</v>
+      </c>
+      <c r="I46" s="24">
+        <v>1.7150000000000001</v>
+      </c>
+      <c r="J46" s="24">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="K46" s="24">
+        <v>0.156</v>
+      </c>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="36"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
         <v>36</v>
       </c>
@@ -1727,19 +2280,35 @@
       <c r="D47" s="12">
         <v>220</v>
       </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E47" s="20">
+        <v>475293.08100000001</v>
+      </c>
+      <c r="F47" s="20">
+        <v>539903.41399999999</v>
+      </c>
+      <c r="G47" s="24">
+        <v>0.312</v>
+      </c>
+      <c r="H47" s="24">
+        <v>6.5039999999999996</v>
+      </c>
+      <c r="I47" s="24">
+        <v>2.6240000000000001</v>
+      </c>
+      <c r="J47" s="24">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="K47" s="24">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="36"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
         <v>44</v>
       </c>
@@ -1752,19 +2321,35 @@
       <c r="D48" s="12">
         <v>185</v>
       </c>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E48" s="20">
+        <v>475293.03</v>
+      </c>
+      <c r="F48" s="20">
+        <v>539903.64</v>
+      </c>
+      <c r="G48" s="24">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="H48" s="24">
+        <v>4.8010000000000002</v>
+      </c>
+      <c r="I48" s="24">
+        <v>1.556</v>
+      </c>
+      <c r="J48" s="24">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="K48" s="24">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="36"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
         <v>65</v>
       </c>
@@ -1777,46 +2362,70 @@
       <c r="D49" s="12">
         <v>199</v>
       </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E49" s="20">
+        <v>475292.95899999997</v>
+      </c>
+      <c r="F49" s="20">
+        <v>539903.58299999998</v>
+      </c>
+      <c r="G49" s="24">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="H49" s="24">
+        <v>5.1589999999999998</v>
+      </c>
+      <c r="I49" s="24">
+        <v>1.766</v>
+      </c>
+      <c r="J49" s="24">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="K49" s="24">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="36"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P50" s="36"/>
+      <c r="Q50" s="36"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="29" t="s">
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29" t="s">
+      <c r="F51" s="25"/>
+      <c r="G51" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29" t="s">
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q51" s="33"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>12</v>
       </c>
@@ -1829,10 +2438,10 @@
       <c r="D52" s="10">
         <v>15</v>
       </c>
-      <c r="E52" s="30" t="s">
+      <c r="E52" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F52" s="30" t="s">
+      <c r="F52" s="23" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="21" t="s">
@@ -1862,8 +2471,10 @@
       <c r="O52" s="21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P52" s="34"/>
+      <c r="Q52" s="35"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
         <v>22</v>
       </c>
@@ -1876,19 +2487,35 @@
       <c r="D53" s="19">
         <v>437</v>
       </c>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E53" s="20">
+        <v>475233.55499999999</v>
+      </c>
+      <c r="F53" s="20">
+        <v>539954.79</v>
+      </c>
+      <c r="G53" s="24">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="H53" s="24">
+        <v>5.8369999999999997</v>
+      </c>
+      <c r="I53" s="24">
+        <v>2.6920000000000002</v>
+      </c>
+      <c r="J53" s="24">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="K53" s="24">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="36"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="13">
         <v>114</v>
       </c>
@@ -1901,19 +2528,35 @@
       <c r="D54" s="12">
         <v>306</v>
       </c>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="31"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E54" s="20">
+        <v>475232.179</v>
+      </c>
+      <c r="F54" s="20">
+        <v>539954.71900000004</v>
+      </c>
+      <c r="G54" s="24">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H54" s="24">
+        <v>1.446</v>
+      </c>
+      <c r="I54" s="24">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="J54" s="24">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K54" s="24">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="36"/>
+      <c r="Q54" s="36"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="15">
         <v>90</v>
       </c>
@@ -1926,19 +2569,35 @@
       <c r="D55" s="12">
         <v>301</v>
       </c>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="31"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E55" s="20">
+        <v>475232.72</v>
+      </c>
+      <c r="F55" s="20">
+        <v>539954.53700000001</v>
+      </c>
+      <c r="G55" s="24">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H55" s="24">
+        <v>1.123</v>
+      </c>
+      <c r="I55" s="24">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="J55" s="24">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="K55" s="24">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="36"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="15">
         <v>19</v>
       </c>
@@ -1951,19 +2610,35 @@
       <c r="D56" s="12">
         <v>362</v>
       </c>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="31"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E56" s="20">
+        <v>475233.17700000003</v>
+      </c>
+      <c r="F56" s="20">
+        <v>539954.60800000001</v>
+      </c>
+      <c r="G56" s="24">
+        <v>0.185</v>
+      </c>
+      <c r="H56" s="24">
+        <v>3.4060000000000001</v>
+      </c>
+      <c r="I56" s="24">
+        <v>1.5009999999999999</v>
+      </c>
+      <c r="J56" s="24">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="K56" s="24">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="36"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="15">
         <v>106</v>
       </c>
@@ -1976,19 +2651,35 @@
       <c r="D57" s="12">
         <v>340</v>
       </c>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E57" s="20">
+        <v>475232.837</v>
+      </c>
+      <c r="F57" s="20">
+        <v>539954.63699999999</v>
+      </c>
+      <c r="G57" s="24">
+        <v>0.11</v>
+      </c>
+      <c r="H57" s="24">
+        <v>2.7559999999999998</v>
+      </c>
+      <c r="I57" s="24">
+        <v>1.26</v>
+      </c>
+      <c r="J57" s="24">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="K57" s="24">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="36"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
         <v>49</v>
       </c>
@@ -2001,19 +2692,35 @@
       <c r="D58" s="12">
         <v>317</v>
       </c>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="31"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E58" s="20">
+        <v>475232.75599999999</v>
+      </c>
+      <c r="F58" s="20">
+        <v>539954.58299999998</v>
+      </c>
+      <c r="G58" s="24">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H58" s="24">
+        <v>1.7929999999999999</v>
+      </c>
+      <c r="I58" s="24">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="J58" s="24">
+        <v>0.105</v>
+      </c>
+      <c r="K58" s="24">
+        <v>0.108</v>
+      </c>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="36"/>
+      <c r="Q58" s="36"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="16">
         <v>128</v>
       </c>
@@ -2028,17 +2735,21 @@
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="31"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q59" s="36"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="16">
         <v>47</v>
       </c>
@@ -2051,19 +2762,35 @@
       <c r="D60" s="12">
         <v>329</v>
       </c>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="31"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E60" s="20">
+        <v>475233.12300000002</v>
+      </c>
+      <c r="F60" s="20">
+        <v>539954.30200000003</v>
+      </c>
+      <c r="G60" s="24">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H60" s="40">
+        <v>0.88</v>
+      </c>
+      <c r="I60" s="24">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="J60" s="24">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="K60" s="24">
+        <v>0.156</v>
+      </c>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="36"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="16">
         <v>39</v>
       </c>
@@ -2076,19 +2803,35 @@
       <c r="D61" s="12">
         <v>398</v>
       </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="31"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E61" s="22">
+        <v>475232.80699999997</v>
+      </c>
+      <c r="F61" s="20">
+        <v>539954.26199999999</v>
+      </c>
+      <c r="G61" s="24">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="H61" s="24">
+        <v>1.8660000000000001</v>
+      </c>
+      <c r="I61" s="24">
+        <v>0.68</v>
+      </c>
+      <c r="J61" s="24">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="K61" s="24">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="16">
         <v>120</v>
       </c>
@@ -2101,19 +2844,35 @@
       <c r="D62" s="12">
         <v>248</v>
       </c>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="31"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E62" s="20">
+        <v>475232.41</v>
+      </c>
+      <c r="F62" s="20">
+        <v>539954.23300000001</v>
+      </c>
+      <c r="G62" s="24">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H62" s="24">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="I62" s="24">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="J62" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="K62" s="24">
+        <v>0.09</v>
+      </c>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="36"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
         <v>13</v>
       </c>
@@ -2126,19 +2885,35 @@
       <c r="D63" s="12">
         <v>248</v>
       </c>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="31"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E63" s="20">
+        <v>475232.41</v>
+      </c>
+      <c r="F63" s="20">
+        <v>539954.23300000001</v>
+      </c>
+      <c r="G63" s="24">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H63" s="24">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="I63" s="24">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="J63" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="K63" s="24">
+        <v>0.09</v>
+      </c>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="36"/>
+      <c r="Q63" s="36"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>130</v>
       </c>
@@ -2151,19 +2926,35 @@
       <c r="D64" s="12">
         <v>339</v>
       </c>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="31"/>
-      <c r="O64" s="31"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E64" s="20">
+        <v>475232.86</v>
+      </c>
+      <c r="F64" s="20">
+        <v>539954.30599999998</v>
+      </c>
+      <c r="G64" s="24">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="H64" s="24">
+        <v>1.3340000000000001</v>
+      </c>
+      <c r="I64" s="24">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="J64" s="24">
+        <v>0.254</v>
+      </c>
+      <c r="K64" s="24">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="36"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="17">
         <v>123</v>
       </c>
@@ -2176,19 +2967,35 @@
       <c r="D65" s="12">
         <v>437</v>
       </c>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="31"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E65" s="41">
+        <v>475232.92099999997</v>
+      </c>
+      <c r="F65" s="20">
+        <v>539953.98199999996</v>
+      </c>
+      <c r="G65" s="24">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="H65" s="24">
+        <v>4.8840000000000003</v>
+      </c>
+      <c r="I65" s="24">
+        <v>1.482</v>
+      </c>
+      <c r="J65" s="24">
+        <v>1.423</v>
+      </c>
+      <c r="K65" s="24">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="L65" s="24"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="36"/>
+      <c r="Q65" s="36"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="17">
         <v>124</v>
       </c>
@@ -2201,19 +3008,35 @@
       <c r="D66" s="12">
         <v>314</v>
       </c>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="31"/>
-      <c r="O66" s="31"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E66" s="20">
+        <v>475232.16899999999</v>
+      </c>
+      <c r="F66" s="20">
+        <v>539954.75</v>
+      </c>
+      <c r="G66" s="24">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H66" s="24">
+        <v>1.7769999999999999</v>
+      </c>
+      <c r="I66" s="24">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="J66" s="24">
+        <v>0.08</v>
+      </c>
+      <c r="K66" s="24">
+        <v>0.08</v>
+      </c>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="36"/>
+      <c r="Q66" s="36"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="17">
         <v>81</v>
       </c>
@@ -2226,19 +3049,35 @@
       <c r="D67" s="12">
         <v>342</v>
       </c>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="31"/>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="31"/>
-      <c r="O67" s="31"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E67" s="20">
+        <v>475232.85700000002</v>
+      </c>
+      <c r="F67" s="20">
+        <v>539954.32400000002</v>
+      </c>
+      <c r="G67" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="H67" s="24">
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="I67" s="24">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="J67" s="24">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="K67" s="24">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="36"/>
+      <c r="Q67" s="36"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="17">
         <v>6</v>
       </c>
@@ -2247,17 +3086,19 @@
       <c r="D68" s="12"/>
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="31"/>
-      <c r="K68" s="31"/>
-      <c r="L68" s="31"/>
-      <c r="M68" s="31"/>
-      <c r="N68" s="31"/>
-      <c r="O68" s="31"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="24"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="36"/>
+      <c r="Q68" s="36"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="17">
         <v>11</v>
       </c>
@@ -2266,17 +3107,19 @@
       <c r="D69" s="12"/>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="31"/>
-      <c r="L69" s="31"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="31"/>
-      <c r="O69" s="31"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="36"/>
+      <c r="Q69" s="36"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="17">
         <v>48</v>
       </c>
@@ -2289,19 +3132,35 @@
       <c r="D70" s="12">
         <v>326</v>
       </c>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="31"/>
-      <c r="K70" s="31"/>
-      <c r="L70" s="31"/>
-      <c r="M70" s="31"/>
-      <c r="N70" s="31"/>
-      <c r="O70" s="31"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E70" s="20">
+        <v>475233.06800000003</v>
+      </c>
+      <c r="F70" s="20">
+        <v>539954.54700000002</v>
+      </c>
+      <c r="G70" s="24">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H70" s="24">
+        <v>1.597</v>
+      </c>
+      <c r="I70" s="24">
+        <v>0.745</v>
+      </c>
+      <c r="J70" s="24">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K70" s="24">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="36"/>
+      <c r="Q70" s="36"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="17">
         <v>62</v>
       </c>
@@ -2314,46 +3173,70 @@
       <c r="D71" s="12">
         <v>276</v>
       </c>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="31"/>
-      <c r="K71" s="31"/>
-      <c r="L71" s="31"/>
-      <c r="M71" s="31"/>
-      <c r="N71" s="31"/>
-      <c r="O71" s="31"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E71" s="20">
+        <v>475232.02</v>
+      </c>
+      <c r="F71" s="20">
+        <v>539954.63800000004</v>
+      </c>
+      <c r="G71" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="H71" s="24">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="I71" s="24">
+        <v>0.129</v>
+      </c>
+      <c r="J71" s="24">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="K71" s="24">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="24"/>
+      <c r="P71" s="36"/>
+      <c r="Q71" s="36"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P72" s="36"/>
+      <c r="Q72" s="36"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="28" t="s">
+      <c r="B73" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="29" t="s">
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29" t="s">
+      <c r="F73" s="25"/>
+      <c r="G73" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H73" s="29"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="29"/>
-      <c r="L73" s="29" t="s">
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="M73" s="29"/>
-      <c r="N73" s="29"/>
-      <c r="O73" s="29"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M73" s="25"/>
+      <c r="N73" s="25"/>
+      <c r="O73" s="25"/>
+      <c r="P73" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q73" s="33"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>12</v>
       </c>
@@ -2366,10 +3249,10 @@
       <c r="D74" s="10">
         <v>20</v>
       </c>
-      <c r="E74" s="30" t="s">
+      <c r="E74" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F74" s="30" t="s">
+      <c r="F74" s="23" t="s">
         <v>15</v>
       </c>
       <c r="G74" s="21" t="s">
@@ -2399,8 +3282,10 @@
       <c r="O74" s="21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P74" s="34"/>
+      <c r="Q74" s="35"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="11">
         <v>8</v>
       </c>
@@ -2413,19 +3298,35 @@
       <c r="D75" s="12">
         <v>54</v>
       </c>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="31"/>
-      <c r="K75" s="31"/>
-      <c r="L75" s="31"/>
-      <c r="M75" s="31"/>
-      <c r="N75" s="31"/>
-      <c r="O75" s="31"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E75" s="20">
+        <v>475235.277</v>
+      </c>
+      <c r="F75" s="20">
+        <v>539959.58200000005</v>
+      </c>
+      <c r="G75" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="H75" s="24">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="I75" s="24">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="J75" s="24">
+        <v>0.112</v>
+      </c>
+      <c r="K75" s="24">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="L75" s="24"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="24"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="36"/>
+      <c r="Q75" s="36"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="13">
         <v>2</v>
       </c>
@@ -2438,19 +3339,35 @@
       <c r="D76" s="12">
         <v>100</v>
       </c>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="31"/>
-      <c r="J76" s="31"/>
-      <c r="K76" s="31"/>
-      <c r="L76" s="31"/>
-      <c r="M76" s="31"/>
-      <c r="N76" s="31"/>
-      <c r="O76" s="31"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E76" s="20">
+        <v>475235.72399999999</v>
+      </c>
+      <c r="F76" s="20">
+        <v>539959.96900000004</v>
+      </c>
+      <c r="G76" s="24">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H76" s="24">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="I76" s="24">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="J76" s="24">
+        <v>0.12</v>
+      </c>
+      <c r="K76" s="24">
+        <v>0.126</v>
+      </c>
+      <c r="L76" s="24"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="24"/>
+      <c r="O76" s="24"/>
+      <c r="P76" s="36"/>
+      <c r="Q76" s="36"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="13">
         <v>43</v>
       </c>
@@ -2463,19 +3380,35 @@
       <c r="D77" s="12">
         <v>80</v>
       </c>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="31"/>
-      <c r="K77" s="31"/>
-      <c r="L77" s="31"/>
-      <c r="M77" s="31"/>
-      <c r="N77" s="31"/>
-      <c r="O77" s="31"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E77" s="20">
+        <v>475235.446</v>
+      </c>
+      <c r="F77" s="20">
+        <v>539960.10400000005</v>
+      </c>
+      <c r="G77" s="24">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H77" s="24">
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="I77" s="24">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="J77" s="24">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K77" s="24">
+        <v>2.3E-2</v>
+      </c>
+      <c r="L77" s="24"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="24"/>
+      <c r="O77" s="24"/>
+      <c r="P77" s="36"/>
+      <c r="Q77" s="36"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="15">
         <v>15</v>
       </c>
@@ -2488,19 +3421,35 @@
       <c r="D78" s="12">
         <v>85</v>
       </c>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="31"/>
-      <c r="K78" s="31"/>
-      <c r="L78" s="31"/>
-      <c r="M78" s="31"/>
-      <c r="N78" s="31"/>
-      <c r="O78" s="31"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E78" s="20">
+        <v>475235.505</v>
+      </c>
+      <c r="F78" s="20">
+        <v>539959.35</v>
+      </c>
+      <c r="G78" s="24">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H78" s="24">
+        <v>1.2110000000000001</v>
+      </c>
+      <c r="I78" s="24">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="J78" s="24">
+        <v>0.111</v>
+      </c>
+      <c r="K78" s="24">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="36"/>
+      <c r="Q78" s="36"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="15">
         <v>94</v>
       </c>
@@ -2513,19 +3462,35 @@
       <c r="D79" s="12">
         <v>73</v>
       </c>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="31"/>
-      <c r="K79" s="31"/>
-      <c r="L79" s="31"/>
-      <c r="M79" s="31"/>
-      <c r="N79" s="31"/>
-      <c r="O79" s="31"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E79" s="20">
+        <v>475235.34399999998</v>
+      </c>
+      <c r="F79" s="20">
+        <v>539959.36100000003</v>
+      </c>
+      <c r="G79" s="24">
+        <v>0.03</v>
+      </c>
+      <c r="H79" s="24">
+        <v>1.4419999999999999</v>
+      </c>
+      <c r="I79" s="24">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="J79" s="24">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="K79" s="24">
+        <v>0.09</v>
+      </c>
+      <c r="L79" s="24"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="24"/>
+      <c r="O79" s="24"/>
+      <c r="P79" s="36"/>
+      <c r="Q79" s="36"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="15">
         <v>95</v>
       </c>
@@ -2538,19 +3503,35 @@
       <c r="D80" s="12">
         <v>67</v>
       </c>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
-      <c r="J80" s="31"/>
-      <c r="K80" s="31"/>
-      <c r="L80" s="31"/>
-      <c r="M80" s="31"/>
-      <c r="N80" s="31"/>
-      <c r="O80" s="31"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E80" s="20">
+        <v>475235.109</v>
+      </c>
+      <c r="F80" s="20">
+        <v>539959.40899999999</v>
+      </c>
+      <c r="G80" s="24">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H80" s="24">
+        <v>2.173</v>
+      </c>
+      <c r="I80" s="24">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="J80" s="24">
+        <v>0.129</v>
+      </c>
+      <c r="K80" s="24">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="L80" s="24"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="24"/>
+      <c r="O80" s="24"/>
+      <c r="P80" s="36"/>
+      <c r="Q80" s="36"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="16">
         <v>109</v>
       </c>
@@ -2563,19 +3544,35 @@
       <c r="D81" s="12">
         <v>75</v>
       </c>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
-      <c r="J81" s="31"/>
-      <c r="K81" s="31"/>
-      <c r="L81" s="31"/>
-      <c r="M81" s="31"/>
-      <c r="N81" s="31"/>
-      <c r="O81" s="31"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E81" s="20">
+        <v>475235.47</v>
+      </c>
+      <c r="F81" s="20">
+        <v>539959.973</v>
+      </c>
+      <c r="G81" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H81" s="24">
+        <v>0.69</v>
+      </c>
+      <c r="I81" s="24">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="J81" s="24">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="K81" s="24">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="L81" s="24"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="24"/>
+      <c r="O81" s="24"/>
+      <c r="P81" s="36"/>
+      <c r="Q81" s="36"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
         <v>66</v>
       </c>
@@ -2588,19 +3585,35 @@
       <c r="D82" s="12">
         <v>148</v>
       </c>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31"/>
-      <c r="J82" s="31"/>
-      <c r="K82" s="31"/>
-      <c r="L82" s="31"/>
-      <c r="M82" s="31"/>
-      <c r="N82" s="31"/>
-      <c r="O82" s="31"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E82" s="20">
+        <v>475235.33</v>
+      </c>
+      <c r="F82" s="20">
+        <v>539959.82200000004</v>
+      </c>
+      <c r="G82" s="24">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="H82" s="24">
+        <v>5.1219999999999999</v>
+      </c>
+      <c r="I82" s="24">
+        <v>2.415</v>
+      </c>
+      <c r="J82" s="24">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="K82" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L82" s="24"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="24"/>
+      <c r="O82" s="24"/>
+      <c r="P82" s="36"/>
+      <c r="Q82" s="36"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="17">
         <v>73</v>
       </c>
@@ -2609,17 +3622,19 @@
       <c r="D83" s="12"/>
       <c r="E83" s="22"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="31"/>
-      <c r="K83" s="31"/>
-      <c r="L83" s="31"/>
-      <c r="M83" s="31"/>
-      <c r="N83" s="31"/>
-      <c r="O83" s="31"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="24"/>
+      <c r="O83" s="24"/>
+      <c r="P83" s="36"/>
+      <c r="Q83" s="36"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="17">
         <v>129</v>
       </c>
@@ -2632,19 +3647,35 @@
       <c r="D84" s="12">
         <v>103</v>
       </c>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="31"/>
-      <c r="K84" s="31"/>
-      <c r="L84" s="31"/>
-      <c r="M84" s="31"/>
-      <c r="N84" s="31"/>
-      <c r="O84" s="31"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E84" s="20">
+        <v>475235.43599999999</v>
+      </c>
+      <c r="F84" s="20">
+        <v>539959.21200000006</v>
+      </c>
+      <c r="G84" s="24">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H84" s="24">
+        <v>2.6640000000000001</v>
+      </c>
+      <c r="I84" s="24">
+        <v>1.2230000000000001</v>
+      </c>
+      <c r="J84" s="24">
+        <v>0.161</v>
+      </c>
+      <c r="K84" s="24">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="24"/>
+      <c r="O84" s="24"/>
+      <c r="P84" s="36"/>
+      <c r="Q84" s="36"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="17">
         <v>70</v>
       </c>
@@ -2657,19 +3688,35 @@
       <c r="D85" s="12">
         <v>82</v>
       </c>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="31"/>
-      <c r="J85" s="31"/>
-      <c r="K85" s="31"/>
-      <c r="L85" s="31"/>
-      <c r="M85" s="31"/>
-      <c r="N85" s="31"/>
-      <c r="O85" s="31"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E85" s="20">
+        <v>475235.58899999998</v>
+      </c>
+      <c r="F85" s="20">
+        <v>539959.76599999995</v>
+      </c>
+      <c r="G85" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H85" s="24">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="I85" s="24">
+        <v>0.107</v>
+      </c>
+      <c r="J85" s="24">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="K85" s="24">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="L85" s="24"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="24"/>
+      <c r="O85" s="24"/>
+      <c r="P85" s="36"/>
+      <c r="Q85" s="36"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="17">
         <v>58</v>
       </c>
@@ -2682,19 +3729,35 @@
       <c r="D86" s="12">
         <v>101</v>
       </c>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="31"/>
-      <c r="J86" s="31"/>
-      <c r="K86" s="31"/>
-      <c r="L86" s="31"/>
-      <c r="M86" s="31"/>
-      <c r="N86" s="31"/>
-      <c r="O86" s="31"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E86" s="20">
+        <v>475235.73700000002</v>
+      </c>
+      <c r="F86" s="20">
+        <v>539959.50100000005</v>
+      </c>
+      <c r="G86" s="24">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H86" s="24">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="I86" s="24">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="J86" s="24">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="K86" s="24">
+        <v>0.186</v>
+      </c>
+      <c r="L86" s="24"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="24"/>
+      <c r="O86" s="24"/>
+      <c r="P86" s="36"/>
+      <c r="Q86" s="36"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="17">
         <v>136</v>
       </c>
@@ -2707,19 +3770,35 @@
       <c r="D87" s="12">
         <v>74</v>
       </c>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="31"/>
-      <c r="K87" s="31"/>
-      <c r="L87" s="31"/>
-      <c r="M87" s="31"/>
-      <c r="N87" s="31"/>
-      <c r="O87" s="31"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E87" s="20">
+        <v>475235.19699999999</v>
+      </c>
+      <c r="F87" s="20">
+        <v>539959.402</v>
+      </c>
+      <c r="G87" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="H87" s="24">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I87" s="24">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="J87" s="24">
+        <v>0.191</v>
+      </c>
+      <c r="K87" s="24">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="L87" s="24"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="24"/>
+      <c r="O87" s="24"/>
+      <c r="P87" s="36"/>
+      <c r="Q87" s="36"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="17">
         <v>39</v>
       </c>
@@ -2732,19 +3811,35 @@
       <c r="D88" s="12">
         <v>110</v>
       </c>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="31"/>
-      <c r="K88" s="31"/>
-      <c r="L88" s="31"/>
-      <c r="M88" s="31"/>
-      <c r="N88" s="31"/>
-      <c r="O88" s="31"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E88" s="20">
+        <v>475235.47899999999</v>
+      </c>
+      <c r="F88" s="20">
+        <v>539959.19799999997</v>
+      </c>
+      <c r="G88" s="24">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="H88" s="24">
+        <v>2.8610000000000002</v>
+      </c>
+      <c r="I88" s="24">
+        <v>0.219</v>
+      </c>
+      <c r="J88" s="24">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="K88" s="24">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="L88" s="24"/>
+      <c r="M88" s="24"/>
+      <c r="N88" s="24"/>
+      <c r="O88" s="24"/>
+      <c r="P88" s="36"/>
+      <c r="Q88" s="36"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="17">
         <v>5</v>
       </c>
@@ -2753,17 +3848,19 @@
       <c r="D89" s="12"/>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="31"/>
-      <c r="H89" s="31"/>
-      <c r="I89" s="31"/>
-      <c r="J89" s="31"/>
-      <c r="K89" s="31"/>
-      <c r="L89" s="31"/>
-      <c r="M89" s="31"/>
-      <c r="N89" s="31"/>
-      <c r="O89" s="31"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="24"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="36"/>
+      <c r="Q89" s="36"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="17">
         <v>31</v>
       </c>
@@ -2776,19 +3873,35 @@
       <c r="D90" s="12">
         <v>64</v>
       </c>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="31"/>
-      <c r="I90" s="31"/>
-      <c r="J90" s="31"/>
-      <c r="K90" s="31"/>
-      <c r="L90" s="31"/>
-      <c r="M90" s="31"/>
-      <c r="N90" s="31"/>
-      <c r="O90" s="31"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E90" s="20">
+        <v>475235.40700000001</v>
+      </c>
+      <c r="F90" s="20">
+        <v>539959.59900000005</v>
+      </c>
+      <c r="G90" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H90" s="24">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="I90" s="24">
+        <v>0.09</v>
+      </c>
+      <c r="J90" s="24">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="K90" s="24">
+        <v>0.182</v>
+      </c>
+      <c r="L90" s="24"/>
+      <c r="M90" s="24"/>
+      <c r="N90" s="24"/>
+      <c r="O90" s="24"/>
+      <c r="P90" s="36"/>
+      <c r="Q90" s="36"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="17">
         <v>10</v>
       </c>
@@ -2797,44 +3910,54 @@
       <c r="D91" s="12"/>
       <c r="E91" s="20"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="31"/>
-      <c r="H91" s="31"/>
-      <c r="I91" s="31"/>
-      <c r="J91" s="31"/>
-      <c r="K91" s="31"/>
-      <c r="L91" s="31"/>
-      <c r="M91" s="31"/>
-      <c r="N91" s="31"/>
-      <c r="O91" s="31"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="24"/>
+      <c r="O91" s="24"/>
+      <c r="P91" s="36"/>
+      <c r="Q91" s="36"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P92" s="36"/>
+      <c r="Q92" s="36"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="23" t="s">
+      <c r="B93" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="29" t="s">
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29" t="s">
+      <c r="F93" s="25"/>
+      <c r="G93" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H93" s="29"/>
-      <c r="I93" s="29"/>
-      <c r="J93" s="29"/>
-      <c r="K93" s="29"/>
-      <c r="L93" s="29" t="s">
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="25"/>
+      <c r="L93" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="M93" s="29"/>
-      <c r="N93" s="29"/>
-      <c r="O93" s="29"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M93" s="25"/>
+      <c r="N93" s="25"/>
+      <c r="O93" s="25"/>
+      <c r="P93" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q93" s="33"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
         <v>12</v>
       </c>
@@ -2847,10 +3970,10 @@
       <c r="D94" s="10">
         <v>28</v>
       </c>
-      <c r="E94" s="30" t="s">
+      <c r="E94" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F94" s="30" t="s">
+      <c r="F94" s="23" t="s">
         <v>15</v>
       </c>
       <c r="G94" s="21" t="s">
@@ -2880,8 +4003,10 @@
       <c r="O94" s="21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P94" s="34"/>
+      <c r="Q94" s="35"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="11">
         <v>1</v>
       </c>
@@ -2894,19 +4019,35 @@
       <c r="D95" s="12">
         <v>102</v>
       </c>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="31"/>
-      <c r="H95" s="31"/>
-      <c r="I95" s="31"/>
-      <c r="J95" s="31"/>
-      <c r="K95" s="31"/>
-      <c r="L95" s="31"/>
-      <c r="M95" s="31"/>
-      <c r="N95" s="31"/>
-      <c r="O95" s="31"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E95" s="20">
+        <v>475238.62900000002</v>
+      </c>
+      <c r="F95" s="20">
+        <v>539969.44499999995</v>
+      </c>
+      <c r="G95" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H95" s="24">
+        <v>1.456</v>
+      </c>
+      <c r="I95" s="24">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="J95" s="24">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K95" s="24">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L95" s="24"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="24"/>
+      <c r="O95" s="24"/>
+      <c r="P95" s="36"/>
+      <c r="Q95" s="36"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="13">
         <v>41</v>
       </c>
@@ -2919,19 +4060,35 @@
       <c r="D96" s="12">
         <v>106</v>
       </c>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="31"/>
-      <c r="K96" s="31"/>
-      <c r="L96" s="31"/>
-      <c r="M96" s="31"/>
-      <c r="N96" s="31"/>
-      <c r="O96" s="31"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E96" s="20">
+        <v>475238.60600000003</v>
+      </c>
+      <c r="F96" s="20">
+        <v>539969.20299999998</v>
+      </c>
+      <c r="G96" s="24">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H96" s="24">
+        <v>2.9929999999999999</v>
+      </c>
+      <c r="I96" s="24">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J96" s="24">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="K96" s="24">
+        <v>1.3560000000000001</v>
+      </c>
+      <c r="L96" s="24"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="24"/>
+      <c r="O96" s="24"/>
+      <c r="P96" s="36"/>
+      <c r="Q96" s="36"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="15">
         <v>17</v>
       </c>
@@ -2944,19 +4101,35 @@
       <c r="D97" s="12">
         <v>120</v>
       </c>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="31"/>
-      <c r="K97" s="31"/>
-      <c r="L97" s="31"/>
-      <c r="M97" s="31"/>
-      <c r="N97" s="31"/>
-      <c r="O97" s="31"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E97" s="20">
+        <v>475238.76899999997</v>
+      </c>
+      <c r="F97" s="20">
+        <v>539969.49600000004</v>
+      </c>
+      <c r="G97" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="H97" s="24">
+        <v>2.109</v>
+      </c>
+      <c r="I97" s="24">
+        <v>1.024</v>
+      </c>
+      <c r="J97" s="24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K97" s="24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L97" s="24"/>
+      <c r="M97" s="24"/>
+      <c r="N97" s="24"/>
+      <c r="O97" s="24"/>
+      <c r="P97" s="36"/>
+      <c r="Q97" s="36"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="15">
         <v>29</v>
       </c>
@@ -2969,19 +4142,35 @@
       <c r="D98" s="12">
         <v>74</v>
       </c>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="31"/>
-      <c r="I98" s="31"/>
-      <c r="J98" s="31"/>
-      <c r="K98" s="31"/>
-      <c r="L98" s="31"/>
-      <c r="M98" s="31"/>
-      <c r="N98" s="31"/>
-      <c r="O98" s="31"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E98" s="20">
+        <v>475238.40899999999</v>
+      </c>
+      <c r="F98" s="20">
+        <v>539969.09499999997</v>
+      </c>
+      <c r="G98" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H98" s="24">
+        <v>2.0179999999999998</v>
+      </c>
+      <c r="I98" s="24">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J98" s="24">
+        <v>2.3E-2</v>
+      </c>
+      <c r="K98" s="24">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="L98" s="24"/>
+      <c r="M98" s="24"/>
+      <c r="N98" s="24"/>
+      <c r="O98" s="24"/>
+      <c r="P98" s="36"/>
+      <c r="Q98" s="36"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="15">
         <v>14</v>
       </c>
@@ -2996,17 +4185,19 @@
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="31"/>
-      <c r="H99" s="31"/>
-      <c r="I99" s="31"/>
-      <c r="J99" s="31"/>
-      <c r="K99" s="31"/>
-      <c r="L99" s="31"/>
-      <c r="M99" s="31"/>
-      <c r="N99" s="31"/>
-      <c r="O99" s="31"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="24"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="24"/>
+      <c r="M99" s="24"/>
+      <c r="N99" s="24"/>
+      <c r="O99" s="24"/>
+      <c r="P99" s="36"/>
+      <c r="Q99" s="36"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="16">
         <v>119</v>
       </c>
@@ -3021,17 +4212,21 @@
       </c>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
-      <c r="G100" s="31"/>
-      <c r="H100" s="31"/>
-      <c r="I100" s="31"/>
-      <c r="J100" s="31"/>
-      <c r="K100" s="31"/>
-      <c r="L100" s="31"/>
-      <c r="M100" s="31"/>
-      <c r="N100" s="31"/>
-      <c r="O100" s="31"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="24"/>
+      <c r="M100" s="24"/>
+      <c r="N100" s="24"/>
+      <c r="O100" s="24"/>
+      <c r="P100" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q100" s="36"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="16">
         <v>45</v>
       </c>
@@ -3044,19 +4239,35 @@
       <c r="D101" s="12">
         <v>116</v>
       </c>
-      <c r="E101" s="20"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="31"/>
-      <c r="H101" s="31"/>
-      <c r="I101" s="31"/>
-      <c r="J101" s="31"/>
-      <c r="K101" s="31"/>
-      <c r="L101" s="31"/>
-      <c r="M101" s="31"/>
-      <c r="N101" s="31"/>
-      <c r="O101" s="31"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E101" s="20">
+        <v>475238.67099999997</v>
+      </c>
+      <c r="F101" s="20">
+        <v>539969.21600000001</v>
+      </c>
+      <c r="G101" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H101" s="24">
+        <v>3.36</v>
+      </c>
+      <c r="I101" s="24">
+        <v>1.571</v>
+      </c>
+      <c r="J101" s="24">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K101" s="24">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L101" s="24"/>
+      <c r="M101" s="24"/>
+      <c r="N101" s="24"/>
+      <c r="O101" s="24"/>
+      <c r="P101" s="36"/>
+      <c r="Q101" s="36"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="16">
         <v>20</v>
       </c>
@@ -3069,19 +4280,37 @@
       <c r="D102" s="12">
         <v>64</v>
       </c>
-      <c r="E102" s="20"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="31"/>
-      <c r="H102" s="31"/>
-      <c r="I102" s="31"/>
-      <c r="J102" s="31"/>
-      <c r="K102" s="31"/>
-      <c r="L102" s="31"/>
-      <c r="M102" s="31"/>
-      <c r="N102" s="31"/>
-      <c r="O102" s="31"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E102" s="20">
+        <v>475238.59399999998</v>
+      </c>
+      <c r="F102" s="20">
+        <v>539968.68400000001</v>
+      </c>
+      <c r="G102" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="H102" s="24">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="I102" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J102" s="24">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K102" s="24">
+        <v>3.1E-2</v>
+      </c>
+      <c r="L102" s="24"/>
+      <c r="M102" s="24"/>
+      <c r="N102" s="24"/>
+      <c r="O102" s="24"/>
+      <c r="P102" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q102" s="36"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="16">
         <v>34</v>
       </c>
@@ -3096,17 +4325,19 @@
       </c>
       <c r="E103" s="22"/>
       <c r="F103" s="20"/>
-      <c r="G103" s="31"/>
-      <c r="H103" s="31"/>
-      <c r="I103" s="31"/>
-      <c r="J103" s="31"/>
-      <c r="K103" s="31"/>
-      <c r="L103" s="31"/>
-      <c r="M103" s="31"/>
-      <c r="N103" s="31"/>
-      <c r="O103" s="31"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="24"/>
+      <c r="J103" s="24"/>
+      <c r="K103" s="24"/>
+      <c r="L103" s="24"/>
+      <c r="M103" s="24"/>
+      <c r="N103" s="24"/>
+      <c r="O103" s="24"/>
+      <c r="P103" s="36"/>
+      <c r="Q103" s="36"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="17">
         <v>64</v>
       </c>
@@ -3119,19 +4350,37 @@
       <c r="D104" s="12">
         <v>65</v>
       </c>
-      <c r="E104" s="20"/>
-      <c r="F104" s="20"/>
-      <c r="G104" s="31"/>
-      <c r="H104" s="31"/>
-      <c r="I104" s="31"/>
-      <c r="J104" s="31"/>
-      <c r="K104" s="31"/>
-      <c r="L104" s="31"/>
-      <c r="M104" s="31"/>
-      <c r="N104" s="31"/>
-      <c r="O104" s="31"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E104" s="22">
+        <v>475238.62900000002</v>
+      </c>
+      <c r="F104" s="20">
+        <v>539968.777</v>
+      </c>
+      <c r="G104" s="24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H104" s="24">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="I104" s="24">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="J104" s="24">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="K104" s="24">
+        <v>0.106</v>
+      </c>
+      <c r="L104" s="24"/>
+      <c r="M104" s="24"/>
+      <c r="N104" s="24"/>
+      <c r="O104" s="24"/>
+      <c r="P104" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q104" s="36"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="17">
         <v>56</v>
       </c>
@@ -3146,17 +4395,19 @@
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="20"/>
-      <c r="G105" s="31"/>
-      <c r="H105" s="31"/>
-      <c r="I105" s="31"/>
-      <c r="J105" s="31"/>
-      <c r="K105" s="31"/>
-      <c r="L105" s="31"/>
-      <c r="M105" s="31"/>
-      <c r="N105" s="31"/>
-      <c r="O105" s="31"/>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G105" s="24"/>
+      <c r="H105" s="24"/>
+      <c r="I105" s="24"/>
+      <c r="J105" s="24"/>
+      <c r="K105" s="24"/>
+      <c r="L105" s="24"/>
+      <c r="M105" s="24"/>
+      <c r="N105" s="24"/>
+      <c r="O105" s="24"/>
+      <c r="P105" s="36"/>
+      <c r="Q105" s="36"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="17">
         <v>78</v>
       </c>
@@ -3165,17 +4416,19 @@
       <c r="D106" s="12"/>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="31"/>
-      <c r="H106" s="31"/>
-      <c r="I106" s="31"/>
-      <c r="J106" s="31"/>
-      <c r="K106" s="31"/>
-      <c r="L106" s="31"/>
-      <c r="M106" s="31"/>
-      <c r="N106" s="31"/>
-      <c r="O106" s="31"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G106" s="24"/>
+      <c r="H106" s="24"/>
+      <c r="I106" s="24"/>
+      <c r="J106" s="24"/>
+      <c r="K106" s="24"/>
+      <c r="L106" s="24"/>
+      <c r="M106" s="24"/>
+      <c r="N106" s="24"/>
+      <c r="O106" s="24"/>
+      <c r="P106" s="36"/>
+      <c r="Q106" s="36"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="18">
         <v>2</v>
       </c>
@@ -3184,17 +4437,19 @@
       <c r="D107" s="12"/>
       <c r="E107" s="20"/>
       <c r="F107" s="20"/>
-      <c r="G107" s="31"/>
-      <c r="H107" s="31"/>
-      <c r="I107" s="31"/>
-      <c r="J107" s="31"/>
-      <c r="K107" s="31"/>
-      <c r="L107" s="31"/>
-      <c r="M107" s="31"/>
-      <c r="N107" s="31"/>
-      <c r="O107" s="31"/>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G107" s="24"/>
+      <c r="H107" s="24"/>
+      <c r="I107" s="24"/>
+      <c r="J107" s="24"/>
+      <c r="K107" s="24"/>
+      <c r="L107" s="24"/>
+      <c r="M107" s="24"/>
+      <c r="N107" s="24"/>
+      <c r="O107" s="24"/>
+      <c r="P107" s="36"/>
+      <c r="Q107" s="36"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="18">
         <v>14</v>
       </c>
@@ -3203,17 +4458,19 @@
       <c r="D108" s="12"/>
       <c r="E108" s="20"/>
       <c r="F108" s="20"/>
-      <c r="G108" s="31"/>
-      <c r="H108" s="31"/>
-      <c r="I108" s="31"/>
-      <c r="J108" s="31"/>
-      <c r="K108" s="31"/>
-      <c r="L108" s="31"/>
-      <c r="M108" s="31"/>
-      <c r="N108" s="31"/>
-      <c r="O108" s="31"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G108" s="24"/>
+      <c r="H108" s="24"/>
+      <c r="I108" s="24"/>
+      <c r="J108" s="24"/>
+      <c r="K108" s="24"/>
+      <c r="L108" s="24"/>
+      <c r="M108" s="24"/>
+      <c r="N108" s="24"/>
+      <c r="O108" s="24"/>
+      <c r="P108" s="36"/>
+      <c r="Q108" s="36"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="18">
         <v>43</v>
       </c>
@@ -3222,17 +4479,19 @@
       <c r="D109" s="12"/>
       <c r="E109" s="20"/>
       <c r="F109" s="20"/>
-      <c r="G109" s="31"/>
-      <c r="H109" s="31"/>
-      <c r="I109" s="31"/>
-      <c r="J109" s="31"/>
-      <c r="K109" s="31"/>
-      <c r="L109" s="31"/>
-      <c r="M109" s="31"/>
-      <c r="N109" s="31"/>
-      <c r="O109" s="31"/>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G109" s="24"/>
+      <c r="H109" s="24"/>
+      <c r="I109" s="24"/>
+      <c r="J109" s="24"/>
+      <c r="K109" s="24"/>
+      <c r="L109" s="24"/>
+      <c r="M109" s="24"/>
+      <c r="N109" s="24"/>
+      <c r="O109" s="24"/>
+      <c r="P109" s="36"/>
+      <c r="Q109" s="36"/>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="18">
         <v>58</v>
       </c>
@@ -3245,20 +4504,147 @@
       <c r="D110" s="12">
         <v>85</v>
       </c>
-      <c r="E110" s="20"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="31"/>
-      <c r="H110" s="31"/>
-      <c r="I110" s="31"/>
-      <c r="J110" s="31"/>
-      <c r="K110" s="31"/>
-      <c r="L110" s="31"/>
-      <c r="M110" s="31"/>
-      <c r="N110" s="31"/>
-      <c r="O110" s="31"/>
+      <c r="E110" s="20">
+        <v>475238.47100000002</v>
+      </c>
+      <c r="F110" s="20">
+        <v>539969.13199999998</v>
+      </c>
+      <c r="G110" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="H110" s="24">
+        <v>2.3679999999999999</v>
+      </c>
+      <c r="I110" s="24">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="J110" s="24">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K110" s="24">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="L110" s="24"/>
+      <c r="M110" s="24"/>
+      <c r="N110" s="24"/>
+      <c r="O110" s="24"/>
+      <c r="P110" s="36"/>
+      <c r="Q110" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="120">
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="P93:Q94"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P73:Q74"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="P51:Q52"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P32:Q33"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P7:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="L32:O32"/>
     <mergeCell ref="E93:F93"/>
     <mergeCell ref="G93:K93"/>
     <mergeCell ref="L93:O93"/>
@@ -3268,18 +4654,6 @@
     <mergeCell ref="E73:F73"/>
     <mergeCell ref="G73:K73"/>
     <mergeCell ref="L73:O73"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B73:D73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
